--- a/Project_NEn408/Document/Worklogs.xlsx
+++ b/Project_NEn408/Document/Worklogs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegedouglas-my.sharepoint.com/personal/enkhbatn_student_douglascollege_ca/Documents/1. DCI/6. 2025 Fall/CSIS 4495 Applied research/Git/HealthAcademyNen08/Project_NEn408/Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_F25DC773A252ABDACC10485461DD4EB45BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76B5FFA4-2D0C-4597-9029-1E5DA77E89D3}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="11_F25DC773A252ABDACC10485461DD4EB45BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD4A0C2B-34AC-4240-9D79-134028033DF1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -39,17 +39,32 @@
     <t>Task</t>
   </si>
   <si>
-    <t>Test chatbot</t>
-  </si>
-  <si>
-    <t>I run website, tried to connect existing chatbot, but it seems not working well, I will look for another way</t>
+    <t>Meeting with Olga</t>
+  </si>
+  <si>
+    <t>We had a meeting and discuss about the projects</t>
+  </si>
+  <si>
+    <t>we received the files and got admin for wordpress, I run health academy website, tried to connect existing chatbot, but it seems not working well, I will look for another way</t>
+  </si>
+  <si>
+    <t>https://github.com/narkmn/HealthAcademyNen08</t>
+  </si>
+  <si>
+    <t>Tested chatbot</t>
+  </si>
+  <si>
+    <t>AI Nutritionist - Health academy website</t>
+  </si>
+  <si>
+    <t>Created new repo in github</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +77,22 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -102,20 +133,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -123,8 +151,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -138,6 +173,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,10 +442,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:E12"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,6 +459,14 @@
     <col min="5" max="5" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
     <row r="3" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -431,69 +481,56 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <v>45913</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <v>45920</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
         <v>45924</v>
       </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="C6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{3B05DAF9-EB44-448E-B265-8D6148DAF9FD}"/>
+  </hyperlinks>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
 </worksheet>
 </file>